--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -27,12 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>displayId</t>
+  </si>
+  <si>
+    <t>moveAgent</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>float3</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1#1#1</t>
   </si>
 </sst>
 </file>
@@ -653,13 +677,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1195,13 +1216,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -1209,20 +1230,67 @@
     <col min="1029" max="16384" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:1">
+    <row r="2" ht="12.65" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>moveAgent</t>
   </si>
   <si>
     <t>position</t>
@@ -44,16 +47,22 @@
     <t>displayId</t>
   </si>
   <si>
-    <t>moveAgent</t>
+    <t>moveSpeed</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>float3</t>
   </si>
   <si>
-    <t>string</t>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ForwardMove</t>
   </si>
   <si>
     <t>1#1#1</t>
@@ -1216,21 +1225,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="1028" width="9.5" style="1" customWidth="1"/>
-    <col min="1029" max="16384" width="9.5" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="1028" width="9.5" style="1" customWidth="1"/>
+    <col min="1029" max="16383" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,48 +1258,63 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:6">
+    <row r="2" ht="12.65" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>ForwardMove</t>
+  </si>
+  <si>
+    <t>0#0#1</t>
   </si>
   <si>
     <t>1#1#1</t>
@@ -1228,7 +1231,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1292,8 +1295,11 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1304,17 +1310,17 @@
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,33 @@
     <t>moveSpeed</t>
   </si>
   <si>
+    <t>isAddCollider</t>
+  </si>
+  <si>
+    <t>isEnableColliderDetection</t>
+  </si>
+  <si>
+    <t>isCollisionDestory</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>colliderLayer</t>
+  </si>
+  <si>
+    <t>colliderShape</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,6 +89,15 @@
     <t>float</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>ColliderShape</t>
+  </si>
+  <si>
+    <t>float2</t>
+  </si>
+  <si>
     <t>ForwardMove</t>
   </si>
   <si>
@@ -69,6 +105,9 @@
   </si>
   <si>
     <t>1#1#1</t>
+  </si>
+  <si>
+    <t>Circle</t>
   </si>
 </sst>
 </file>
@@ -81,10 +120,15 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -553,21 +597,18 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,123 +617,129 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1228,21 +1275,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="1028" width="9.5" style="1" customWidth="1"/>
-    <col min="1029" max="16383" width="9.5" customWidth="1"/>
+    <col min="4" max="1029" width="9.5" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="38.25" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,63 +1311,138 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:7">
+    <row r="2" ht="12.65" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>moveSpeed</t>
   </si>
   <si>
+    <t>buffs</t>
+  </si>
+  <si>
     <t>isAddCollider</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>bool</t>
@@ -1275,21 +1281,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="1029" width="9.5" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9.5" customWidth="1"/>
+    <col min="4" max="1030" width="9.5" style="1" customWidth="1"/>
+    <col min="1031" max="16383" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:16">
+    <row r="1" ht="38.25" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1317,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1338,69 +1344,75 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:16">
+    <row r="2" ht="12.65" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1408,41 +1420,41 @@
       <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,39 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>args0</t>
+  </si>
+  <si>
+    <t>args1</t>
+  </si>
+  <si>
+    <t>args2</t>
+  </si>
+  <si>
+    <t>args3</t>
+  </si>
+  <si>
+    <t>args4</t>
+  </si>
+  <si>
+    <t>args5</t>
+  </si>
+  <si>
+    <t>args6</t>
+  </si>
+  <si>
+    <t>args7</t>
+  </si>
+  <si>
+    <t>args8</t>
+  </si>
+  <si>
+    <t>args9</t>
+  </si>
+  <si>
+    <t>args10</t>
   </si>
   <si>
     <t>int</t>
@@ -1281,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1295,7 +1328,7 @@
     <col min="1031" max="16383" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:17">
+    <row r="1" ht="38.25" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,58 +1380,124 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:17">
+    <row r="2" ht="12.65" customHeight="1" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1406,13 +1505,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1436,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1">
         <v>0.5</v>
@@ -1444,17 +1543,17 @@
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -1316,15 +1316,17 @@
   <sheetPr/>
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="1030" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
+    <col min="11" max="1030" width="9.5" style="1" customWidth="1"/>
     <col min="1031" max="16383" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1523,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>1</v>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>scale</t>
   </si>
   <si>
-    <t>rotation</t>
+    <t>angle</t>
   </si>
   <si>
     <t>displayId</t>
@@ -119,10 +119,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>float3</t>
-  </si>
-  <si>
-    <t>float</t>
+    <t>TSVector</t>
+  </si>
+  <si>
+    <t>FP</t>
   </si>
   <si>
     <t>int[]</t>
@@ -134,16 +134,13 @@
     <t>ColliderShape</t>
   </si>
   <si>
-    <t>float2</t>
+    <t>TSVector2</t>
   </si>
   <si>
     <t>ForwardMove</t>
   </si>
   <si>
     <t>0#0#1</t>
-  </si>
-  <si>
-    <t>1#1#1</t>
   </si>
   <si>
     <t>Circle</t>
@@ -1317,7 +1314,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1330,7 +1327,7 @@
     <col min="1031" max="16383" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:28">
+    <row r="1" ht="25.5" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:28">
+    <row r="2" ht="22" customHeight="1" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1427,10 +1424,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -1512,8 +1509,8 @@
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1537,25 +1534,25 @@
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
-        <v>38</v>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="1" t="s">
-        <v>38</v>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
-        <v>38</v>
+      <c r="D7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1510,10 +1510,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>

--- a/xlsxs/BulletConfig.xlsx
+++ b/xlsxs/BulletConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775" tabRatio="500"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BulletConfig" sheetId="1" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1518,6 +1518,7 @@
       <c r="G4" s="1">
         <v>10</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
